--- a/target/src/main/resources/testcase/Test_cases.xlsx
+++ b/target/src/main/resources/testcase/Test_cases.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10520"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ygulv\Documents\workspace-spring-tool-suite-4-4.9.0.RELEASE\api-call\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/subham/Desktop/AthenaProject/AthenaDataValidationUtility-master/src/main/resources/testcase/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E744381E-2167-408D-9881-A0CF46EBA970}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F2CB64E-94E7-224E-B36D-61ED74AA93C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,18 +41,6 @@
     <t>TC01</t>
   </si>
   <si>
-    <t>TC02</t>
-  </si>
-  <si>
-    <t>SELECT * FROM sampledb.source_table
-UNION 
-SELECT * FROM sampledb.target_table2 
-EXCEPT 
-SELECT * FROM sampledb.source_table
-INTERSECT
-SELECT * FROM sampledb.target_table2;</t>
-  </si>
-  <si>
     <t>SELECT * FROM sampledb.source_table
 UNION 
 SELECT * FROM sampledb.target_table 
@@ -60,6 +48,12 @@
 SELECT * FROM sampledb.source_table
 INTERSECT
 SELECT * FROM sampledb.target_table;</t>
+  </si>
+  <si>
+    <t>SELECT * FROM sampledb.source_table UNION SELECT * FROM sampledb.target_table;</t>
+  </si>
+  <si>
+    <t>TC02</t>
   </si>
 </sst>
 </file>
@@ -417,15 +411,15 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="42.109375" customWidth="1"/>
+    <col min="2" max="2" width="42.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -433,20 +427,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="112" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
